--- a/user study1/Participant background.xlsx
+++ b/user study1/Participant background.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31295\Desktop\tosem\PromptSapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31295\Desktop\tosem\PromptSapper\user study1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FAEC7D-B083-47CF-A8B7-1C7FE72645FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59FE7FA-F8F9-4B5A-BC31-4A5F9489C5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
-  <si>
-    <t>Male 男</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>Computer Science(计算机信息科学)</t>
   </si>
@@ -217,6 +214,14 @@
   </si>
   <si>
     <t>p18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Male</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -869,554 +874,554 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="59.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="59.109375" customWidth="1"/>
     <col min="10" max="10" width="51" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" customWidth="1"/>
-    <col min="12" max="12" width="79.28515625" customWidth="1"/>
-    <col min="13" max="13" width="86.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1"/>
+    <col min="12" max="12" width="79.33203125" customWidth="1"/>
+    <col min="13" max="13" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4">
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4">
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4">
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4">
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>0</v>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6">
         <v>21</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="6">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
+      <c r="C16" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>0</v>
+      <c r="C17" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="6">
         <v>19</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>0</v>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="2"/>
       <c r="M18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
+      <c r="C19" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="F19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
